--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
@@ -749,34 +756,40 @@
         <v>1400</v>
       </c>
       <c r="H8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
       </c>
       <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O8" s="3">
         <v>1000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3800</v>
       </c>
       <c r="P8" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,19 +1137,19 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1111,57 +1164,69 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1000</v>
       </c>
       <c r="J18" s="3">
         <v>1000</v>
       </c>
       <c r="K18" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
       </c>
       <c r="M18" s="3">
+        <v>900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="3">
         <v>800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3000</v>
       </c>
       <c r="P18" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,66 +1243,74 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-900</v>
       </c>
       <c r="K20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
@@ -1252,22 +1325,28 @@
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,19 +1389,25 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -1340,22 +1425,28 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,10 +1454,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1384,22 +1475,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,20 +1539,26 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
@@ -1472,34 +1575,40 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
@@ -1516,22 +1625,28 @@
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,64 +1839,76 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>900</v>
       </c>
       <c r="K32" s="3">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
@@ -1777,25 +1922,31 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,20 +1989,26 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
@@ -1865,74 +2022,86 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F42" s="3">
         <v>7300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>7600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>4100</v>
       </c>
       <c r="F48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4300</v>
       </c>
       <c r="J48" s="3">
         <v>4300</v>
       </c>
       <c r="K48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4300</v>
       </c>
       <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>142800</v>
+      </c>
+      <c r="F54" s="3">
         <v>142300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>140700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>136500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>137100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>137800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>133500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>132200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>131100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>129600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>129000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>119300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>116000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,11 +2921,17 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,29 +2974,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2739,20 +3012,26 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
       </c>
       <c r="F62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1400</v>
       </c>
       <c r="L62" s="3">
         <v>1500</v>
       </c>
       <c r="M62" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="N62" s="3">
         <v>1500</v>
       </c>
       <c r="O62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>114900</v>
+      </c>
+      <c r="F66" s="3">
         <v>114400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>112700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>108700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>109300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>110100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>105900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>104700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>103700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>102500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>115200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>105600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>102500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F72" s="3">
         <v>14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>14100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>13800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>13600</v>
       </c>
       <c r="M72" s="3">
         <v>13800</v>
       </c>
       <c r="N72" s="3">
+        <v>13600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="P72" s="3">
         <v>13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E76" s="3">
         <v>27900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G76" s="3">
         <v>28000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>27800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>27700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>27600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,69 +3894,81 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
@@ -3593,25 +3982,31 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,28 +4023,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3661,19 +4058,25 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3984,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3993,13 +4434,19 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>9300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>1300</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
       </c>
       <c r="F8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
@@ -762,34 +766,37 @@
         <v>1400</v>
       </c>
       <c r="J8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
       </c>
       <c r="M8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1000</v>
       </c>
       <c r="P8" s="3">
         <v>1000</v>
       </c>
       <c r="Q8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1143,16 +1170,16 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1170,36 +1197,39 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
       <c r="F18" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="3">
         <v>1100</v>
       </c>
       <c r="H18" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="3">
         <v>1200</v>
       </c>
       <c r="J18" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K18" s="3">
         <v>1000</v>
@@ -1208,25 +1238,28 @@
         <v>1000</v>
       </c>
       <c r="M18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>800</v>
       </c>
       <c r="P18" s="3">
         <v>800</v>
       </c>
       <c r="Q18" s="3">
+        <v>800</v>
+      </c>
+      <c r="R18" s="3">
         <v>3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,31 +1278,32 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>-700</v>
       </c>
       <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-1100</v>
       </c>
       <c r="J20" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
@@ -1278,75 +1312,81 @@
         <v>-900</v>
       </c>
       <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,22 +1435,25 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1431,22 +1474,25 @@
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1481,22 +1527,25 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,23 +1594,26 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -1581,37 +1633,40 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>200</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
@@ -1631,22 +1686,25 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,31 +1912,34 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>700</v>
       </c>
       <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>1100</v>
       </c>
       <c r="J32" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
@@ -1878,40 +1948,43 @@
         <v>900</v>
       </c>
       <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>200</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
@@ -1928,25 +2001,28 @@
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,23 +2071,26 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>200</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
@@ -2028,80 +2107,86 @@
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="3">
         <v>7500</v>
       </c>
       <c r="F42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G42" s="3">
         <v>7300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,16 +2595,19 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4100</v>
       </c>
       <c r="F48" s="3">
         <v>4100</v>
@@ -2508,13 +2616,13 @@
         <v>4100</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I48" s="3">
         <v>4200</v>
       </c>
       <c r="J48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K48" s="3">
         <v>4300</v>
@@ -2523,13 +2631,13 @@
         <v>4300</v>
       </c>
       <c r="M48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="N48" s="3">
         <v>4400</v>
       </c>
       <c r="O48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="P48" s="3">
         <v>4300</v>
@@ -2537,11 +2645,14 @@
       <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E54" s="3">
         <v>144100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>142800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>140700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>136500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>137100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>131100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>129000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2927,11 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,32 +3114,35 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3018,11 +3155,11 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,16 +3273,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1500</v>
       </c>
       <c r="F62" s="3">
         <v>1500</v>
@@ -3148,40 +3294,43 @@
         <v>1500</v>
       </c>
       <c r="H62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I62" s="3">
         <v>1400</v>
       </c>
       <c r="J62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1500</v>
       </c>
       <c r="L62" s="3">
         <v>1500</v>
       </c>
       <c r="M62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E66" s="3">
         <v>116000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>108700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>115200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>105600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>14200</v>
       </c>
       <c r="I72" s="3">
         <v>14200</v>
       </c>
       <c r="J72" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E76" s="3">
         <v>28100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>27900</v>
       </c>
       <c r="F76" s="3">
         <v>27900</v>
       </c>
       <c r="G76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="H76" s="3">
         <v>28000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>27800</v>
       </c>
       <c r="I76" s="3">
         <v>27800</v>
       </c>
       <c r="J76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,78 +4089,84 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>200</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
@@ -3988,25 +4183,28 @@
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-2100</v>
       </c>
       <c r="P89" s="3">
         <v>-2100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4431,22 +4652,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-800</v>
       </c>
       <c r="I100" s="3">
         <v>-800</v>
       </c>
       <c r="J100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>100</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,178 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400</v>
-      </c>
       <c r="J8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K8" s="3">
         <v>1300</v>
       </c>
       <c r="L8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +888,26 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +959,26 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +998,14 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1057,26 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1128,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1199,26 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1270,26 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,43 +1306,49 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1197,39 +1357,57 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>900</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
       <c r="F18" s="3">
+        <v>900</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1100</v>
       </c>
       <c r="H18" s="3">
         <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K18" s="3">
         <v>1000</v>
@@ -1238,28 +1416,46 @@
         <v>1000</v>
       </c>
       <c r="M18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="X18" s="3">
         <v>3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1475,156 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="X21" s="3">
         <v>1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1676,168 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>600</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1889,168 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,28 +2102,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1791,26 +2155,44 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +2244,26 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2315,168 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>800</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>800</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2528,173 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2714,14 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2741,156 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>33800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="R41" s="3">
         <v>8000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="U41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="V41" s="3">
         <v>20200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="W41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="X41" s="3">
         <v>19600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>700</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="L42" s="3">
         <v>7500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="M42" s="3">
         <v>7300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="N42" s="3">
         <v>6700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="O42" s="3">
         <v>6900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="P42" s="3">
         <v>7600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="Q42" s="3">
         <v>8300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="R42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>9400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="U42" s="3">
         <v>7400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="V42" s="3">
         <v>3900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="W42" s="3">
         <v>4000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="X42" s="3">
         <v>3800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2942,26 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +3013,26 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +3084,26 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +3155,26 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +3226,31 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>4000</v>
@@ -2619,28 +3265,28 @@
         <v>4100</v>
       </c>
       <c r="I48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J48" s="3">
         <v>4200</v>
       </c>
       <c r="K48" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L48" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="M48" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="N48" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="O48" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="P48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="Q48" s="3">
         <v>4300</v>
@@ -2648,11 +3294,29 @@
       <c r="R48" s="3">
         <v>4300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +3368,26 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +3439,26 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +3510,49 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2863,8 +3581,26 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3652,97 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>172200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>167400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>165000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>160400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>156700</v>
+      </c>
+      <c r="J54" s="3">
         <v>154500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="K54" s="3">
         <v>144100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>142800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>142300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>140700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>136500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>137100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>137800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>133500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>132200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>131100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>129600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="V54" s="3">
         <v>129000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="W54" s="3">
         <v>119300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="X54" s="3">
         <v>116000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3762,14 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3789,37 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3061,11 +3845,29 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,50 +3919,68 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3170,8 +3990,26 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +4061,26 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,31 +4132,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1500</v>
+      <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1400</v>
+        <v>1700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
@@ -3312,25 +4186,43 @@
         <v>1500</v>
       </c>
       <c r="N62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +4274,26 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +4345,26 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +4416,97 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>142200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>137900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>135600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>131400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>128500</v>
+      </c>
+      <c r="J66" s="3">
         <v>126100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>116000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>114900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>114400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>112700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>108700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>109300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>110100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>105900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>104700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>103700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>102500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="V66" s="3">
         <v>115200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="W66" s="3">
         <v>105600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="X66" s="3">
         <v>102500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +4526,14 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +4585,26 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +4656,26 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4727,26 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4798,97 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="V72" s="3">
         <v>13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="W72" s="3">
         <v>13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="X72" s="3">
         <v>13500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4940,26 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +5011,26 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +5082,97 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>29500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J76" s="3">
         <v>28400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>28100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>27900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>27900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>28000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>27800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>27800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>27700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
         <v>27600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>27500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>27300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>27000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="V76" s="3">
         <v>13800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="W76" s="3">
         <v>13700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="X76" s="3">
         <v>13500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +5224,173 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,34 +5410,40 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4260,25 +5452,43 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +5540,26 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +5611,26 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +5682,26 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +5753,26 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +5824,97 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="W89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +5934,37 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4655,22 +5979,40 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +6064,26 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +6135,97 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="L94" s="3">
         <v>2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="M94" s="3">
         <v>3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="V94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="X94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +6245,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +6304,26 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +6375,26 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +6446,26 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +6517,97 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>900</v>
-      </c>
-      <c r="P100" s="3">
-        <v>9300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R100" s="3">
-        <v>4600</v>
       </c>
       <c r="S100" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U100" s="3">
+        <v>900</v>
+      </c>
+      <c r="V100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="W100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +6659,93 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,16 +777,16 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1300</v>
       </c>
       <c r="I8" s="3">
         <v>1300</v>
@@ -797,7 +801,7 @@
         <v>1300</v>
       </c>
       <c r="M8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N8" s="3">
         <v>1400</v>
@@ -809,34 +813,37 @@
         <v>1400</v>
       </c>
       <c r="Q8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R8" s="3">
         <v>1300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1200</v>
       </c>
       <c r="S8" s="3">
         <v>1200</v>
       </c>
       <c r="T8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1000</v>
       </c>
       <c r="W8" s="3">
         <v>1000</v>
       </c>
       <c r="X8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,13 +1338,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1333,13 +1360,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1351,16 +1378,16 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1378,57 +1405,60 @@
         <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
       </c>
       <c r="M18" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N18" s="3">
         <v>1100</v>
       </c>
       <c r="O18" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P18" s="3">
         <v>1200</v>
       </c>
       <c r="Q18" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="R18" s="3">
         <v>1000</v>
@@ -1437,25 +1467,28 @@
         <v>1000</v>
       </c>
       <c r="T18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>800</v>
       </c>
       <c r="W18" s="3">
         <v>800</v>
       </c>
       <c r="X18" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,52 +1514,53 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-700</v>
       </c>
       <c r="M20" s="3">
         <v>-700</v>
       </c>
       <c r="N20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1100</v>
       </c>
       <c r="P20" s="3">
         <v>-1100</v>
       </c>
       <c r="Q20" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="R20" s="3">
         <v>-900</v>
@@ -1535,25 +1569,28 @@
         <v>-900</v>
       </c>
       <c r="T20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1572,59 +1609,62 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>1200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
-        <v>300</v>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,34 +1746,34 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
@@ -1751,22 +1794,25 @@
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1774,22 +1820,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1801,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1822,22 +1868,25 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,44 +1956,47 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
@@ -1964,58 +2016,61 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
@@ -2035,22 +2090,25 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2146,8 +2207,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2161,11 +2222,11 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,52 +2400,55 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>700</v>
       </c>
       <c r="M32" s="3">
         <v>700</v>
       </c>
       <c r="N32" s="3">
+        <v>700</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1100</v>
       </c>
       <c r="P32" s="3">
         <v>1100</v>
       </c>
       <c r="Q32" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="R32" s="3">
         <v>900</v>
@@ -2387,61 +2457,64 @@
         <v>900</v>
       </c>
       <c r="T32" s="3">
+        <v>900</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
@@ -2458,25 +2531,28 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,44 +2622,47 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
@@ -2600,101 +2679,107 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E41" s="3">
         <v>41000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>7500</v>
       </c>
       <c r="L42" s="3">
         <v>7500</v>
       </c>
       <c r="M42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N42" s="3">
         <v>7300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3800</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3364,7 @@
         <v>4000</v>
       </c>
       <c r="F48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="3">
         <v>4100</v>
@@ -3268,13 +3376,13 @@
         <v>4100</v>
       </c>
       <c r="J48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4100</v>
       </c>
       <c r="M48" s="3">
         <v>4100</v>
@@ -3283,13 +3391,13 @@
         <v>4100</v>
       </c>
       <c r="O48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="P48" s="3">
         <v>4200</v>
       </c>
       <c r="Q48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="R48" s="3">
         <v>4300</v>
@@ -3298,13 +3406,13 @@
         <v>4300</v>
       </c>
       <c r="T48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="U48" s="3">
         <v>4400</v>
       </c>
       <c r="V48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="W48" s="3">
         <v>4300</v>
@@ -3312,11 +3420,14 @@
       <c r="X48" s="3">
         <v>4300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,16 +3645,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -3554,8 +3674,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E54" s="3">
         <v>174800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>172200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>167400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>165000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>160400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>156700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>142300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>140700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>137800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>131100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>129600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>129000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>119300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>116000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,16 +3925,17 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -3812,17 +3943,17 @@
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3863,11 +3994,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,53 +4071,56 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3996,11 +4133,11 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,37 +4293,40 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1500</v>
       </c>
       <c r="M62" s="3">
         <v>1500</v>
@@ -4189,40 +4335,43 @@
         <v>1500</v>
       </c>
       <c r="O62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P62" s="3">
         <v>1400</v>
       </c>
       <c r="Q62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R62" s="3">
         <v>1600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1500</v>
       </c>
       <c r="S62" s="3">
         <v>1500</v>
       </c>
       <c r="T62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E66" s="3">
         <v>144700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>142200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>126100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>108700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>105900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>104700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>103700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>102500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>115200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>105600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>102500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>17400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>16700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>15000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>14200</v>
       </c>
       <c r="P72" s="3">
         <v>14200</v>
       </c>
       <c r="Q72" s="3">
+        <v>14200</v>
+      </c>
+      <c r="R72" s="3">
         <v>14100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
         <v>30100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>27900</v>
       </c>
       <c r="M76" s="3">
         <v>27900</v>
       </c>
       <c r="N76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="O76" s="3">
         <v>28000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>27800</v>
       </c>
       <c r="P76" s="3">
         <v>27800</v>
       </c>
       <c r="Q76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="R76" s="3">
         <v>27700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,120 +5431,126 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
@@ -5372,25 +5567,28 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5436,59 +5635,62 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5862,59 +6079,62 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>-5800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-2100</v>
       </c>
       <c r="W89" s="3">
         <v>-2100</v>
       </c>
       <c r="X89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5960,14 +6181,14 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5997,22 +6218,25 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6173,59 +6403,62 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>-10900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6272,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6555,59 +6801,62 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>15100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-800</v>
       </c>
       <c r="P100" s="3">
         <v>-800</v>
       </c>
       <c r="Q100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R100" s="3">
         <v>4100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6697,55 +6949,58 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>-1700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
@@ -789,10 +797,10 @@
         <v>1200</v>
       </c>
       <c r="I8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1300</v>
@@ -804,10 +812,10 @@
         <v>1300</v>
       </c>
       <c r="N8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P8" s="3">
         <v>1400</v>
@@ -816,34 +824,40 @@
         <v>1400</v>
       </c>
       <c r="R8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1100</v>
       </c>
       <c r="V8" s="3">
         <v>1200</v>
       </c>
       <c r="W8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1000</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3800</v>
       </c>
       <c r="Z8" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1280,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1391,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1405,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1363,16 +1417,16 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1381,19 +1435,19 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1408,21 +1462,27 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>900</v>
       </c>
       <c r="F18" s="3">
         <v>1000</v>
@@ -1434,61 +1494,67 @@
         <v>1000</v>
       </c>
       <c r="I18" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J18" s="3">
         <v>1000</v>
       </c>
       <c r="K18" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
       </c>
       <c r="M18" s="3">
+        <v>800</v>
+      </c>
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1000</v>
       </c>
       <c r="T18" s="3">
         <v>1000</v>
       </c>
       <c r="U18" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V18" s="3">
         <v>1000</v>
       </c>
       <c r="W18" s="3">
+        <v>900</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y18" s="3">
         <v>800</v>
-      </c>
-      <c r="X18" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>3000</v>
       </c>
       <c r="Z18" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,70 +1595,76 @@
         <v>-800</v>
       </c>
       <c r="F20" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
         <v>-800</v>
       </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-900</v>
       </c>
       <c r="T20" s="3">
         <v>-900</v>
       </c>
       <c r="U20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,32 +1683,32 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
@@ -1649,22 +1723,28 @@
         <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,50 +1817,56 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
@@ -1797,33 +1883,39 @@
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1832,17 +1924,17 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
@@ -1850,10 +1942,10 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1871,22 +1963,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,19 +2057,25 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1980,29 +2084,29 @@
         <v>400</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
@@ -2019,33 +2123,39 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -2054,29 +2164,29 @@
         <v>400</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
@@ -2093,22 +2203,28 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,11 +2332,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2225,27 +2347,27 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,81 +2555,87 @@
         <v>800</v>
       </c>
       <c r="F32" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
         <v>800</v>
       </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>800</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>900</v>
       </c>
       <c r="T32" s="3">
         <v>900</v>
       </c>
       <c r="U32" s="3">
+        <v>900</v>
+      </c>
+      <c r="V32" s="3">
+        <v>900</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -2498,29 +2644,29 @@
         <v>400</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
@@ -2534,25 +2680,31 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,19 +2777,25 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2646,29 +2804,29 @@
         <v>400</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
@@ -2682,104 +2840,116 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +3006,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F41" s="3">
         <v>33300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>42100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>15400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>20200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>17100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>19600</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F42" s="3">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>6900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>7600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>8500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>9400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>9000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>7400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>4000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3402,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3562,14 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3367,10 +3583,10 @@
         <v>4000</v>
       </c>
       <c r="G48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="3">
         <v>4100</v>
@@ -3379,55 +3595,61 @@
         <v>4100</v>
       </c>
       <c r="K48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4100</v>
       </c>
       <c r="O48" s="3">
         <v>4100</v>
       </c>
       <c r="P48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R48" s="3">
         <v>4200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4300</v>
       </c>
       <c r="T48" s="3">
         <v>4300</v>
       </c>
       <c r="U48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W48" s="3">
         <v>4400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>4300</v>
       </c>
       <c r="Y48" s="3">
         <v>4300</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,22 +3882,28 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3677,11 +3917,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>168300</v>
+      </c>
+      <c r="F54" s="3">
         <v>170300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>174800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>172200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>167400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>165000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>160400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>156700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>154500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>144100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>142800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>142300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>140700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>136500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>137100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>137800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>133500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>132200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>131100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>129600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>129000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>119300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>116000</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,40 +4186,42 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3997,11 +4259,17 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4342,14 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4100,33 +4374,33 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4136,20 +4410,26 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4502,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,82 +4582,94 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1500</v>
       </c>
       <c r="O62" s="3">
         <v>1500</v>
       </c>
       <c r="P62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1400</v>
       </c>
       <c r="V62" s="3">
         <v>1500</v>
       </c>
       <c r="W62" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="X62" s="3">
         <v>1500</v>
       </c>
       <c r="Y62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>139700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>141800</v>
+      </c>
+      <c r="F66" s="3">
         <v>143800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>144700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>142200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>137900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>135600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>131400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>128500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>126100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>116000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>114900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>114400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>112700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>108700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>109300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>110100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>105900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>104700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>103700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>102500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>115200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>105600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>102500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>17400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>16700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>15000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>14000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13900</v>
-      </c>
-      <c r="U72" s="3">
-        <v>13800</v>
-      </c>
-      <c r="V72" s="3">
-        <v>13600</v>
       </c>
       <c r="W72" s="3">
         <v>13800</v>
       </c>
       <c r="X72" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>13700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>13500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G76" s="3">
         <v>30100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>30000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>29600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>29000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>27900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>27800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>27800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>27600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>27500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>27300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>27000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>13800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>13700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>13500</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,98 +5812,110 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -5534,29 +5924,29 @@
         <v>400</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
@@ -5570,25 +5960,31 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5635,38 +6033,38 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5678,19 +6076,25 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6487,14 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6079,62 +6513,68 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,20 +6623,20 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6221,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6230,13 +6672,19 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6403,62 +6863,68 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-9200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6506,14 +6974,14 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7267,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6801,62 +7293,68 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>15100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>9300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>4600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7427,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6949,58 +7453,64 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,148 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1300</v>
       </c>
       <c r="L8" s="3">
         <v>1300</v>
@@ -818,7 +821,7 @@
         <v>1300</v>
       </c>
       <c r="P8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q8" s="3">
         <v>1400</v>
@@ -830,34 +833,37 @@
         <v>1400</v>
       </c>
       <c r="T8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U8" s="3">
         <v>1300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1200</v>
       </c>
       <c r="V8" s="3">
         <v>1200</v>
       </c>
       <c r="W8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1000</v>
       </c>
       <c r="Z8" s="3">
         <v>1000</v>
       </c>
       <c r="AA8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB8" s="3">
         <v>3800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,22 +1418,23 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1423,13 +1449,13 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1441,16 +1467,16 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1468,13 +1494,16 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,52 +1511,52 @@
         <v>1300</v>
       </c>
       <c r="E18" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F18" s="3">
         <v>1000</v>
       </c>
       <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1000</v>
       </c>
       <c r="O18" s="3">
         <v>1000</v>
       </c>
       <c r="P18" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q18" s="3">
         <v>1100</v>
       </c>
       <c r="R18" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S18" s="3">
         <v>1200</v>
       </c>
       <c r="T18" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="U18" s="3">
         <v>1000</v>
@@ -1536,25 +1565,28 @@
         <v>1000</v>
       </c>
       <c r="W18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>800</v>
       </c>
       <c r="Z18" s="3">
         <v>800</v>
       </c>
       <c r="AA18" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB18" s="3">
         <v>3000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,61 +1615,62 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
       </c>
       <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-700</v>
       </c>
       <c r="P20" s="3">
         <v>-700</v>
       </c>
       <c r="Q20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1100</v>
       </c>
       <c r="S20" s="3">
         <v>-1100</v>
       </c>
       <c r="T20" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="U20" s="3">
         <v>-900</v>
@@ -1646,25 +1679,28 @@
         <v>-900</v>
       </c>
       <c r="W20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1689,62 +1725,65 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
-        <v>300</v>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,52 +1862,55 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
@@ -1889,30 +1931,33 @@
         <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1921,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1948,7 +1993,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1969,22 +2014,25 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,53 +2111,56 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
@@ -2129,67 +2180,70 @@
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
@@ -2209,22 +2263,25 @@
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,8 +2398,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2353,11 +2413,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,61 +2609,64 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
       </c>
       <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>700</v>
       </c>
       <c r="P32" s="3">
         <v>700</v>
       </c>
       <c r="Q32" s="3">
+        <v>700</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1100</v>
       </c>
       <c r="S32" s="3">
         <v>1100</v>
       </c>
       <c r="T32" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="U32" s="3">
         <v>900</v>
@@ -2606,70 +2675,73 @@
         <v>900</v>
       </c>
       <c r="W32" s="3">
+        <v>900</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
@@ -2686,25 +2758,28 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,53 +2858,56 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
@@ -2846,110 +2924,116 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3093,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10000</v>
+        <v>7700</v>
       </c>
       <c r="E41" s="3">
         <v>10000</v>
       </c>
       <c r="F41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G41" s="3">
         <v>33300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19600</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E42" s="3">
         <v>8900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>7500</v>
       </c>
       <c r="O42" s="3">
         <v>7500</v>
       </c>
       <c r="P42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Q42" s="3">
         <v>7300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3800</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3672,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3">
         <v>4000</v>
@@ -3589,7 +3696,7 @@
         <v>4000</v>
       </c>
       <c r="I48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <v>4100</v>
@@ -3601,13 +3708,13 @@
         <v>4100</v>
       </c>
       <c r="M48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4100</v>
       </c>
       <c r="P48" s="3">
         <v>4100</v>
@@ -3616,13 +3723,13 @@
         <v>4100</v>
       </c>
       <c r="R48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="S48" s="3">
         <v>4200</v>
       </c>
       <c r="T48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="U48" s="3">
         <v>4300</v>
@@ -3631,13 +3738,13 @@
         <v>4300</v>
       </c>
       <c r="W48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="X48" s="3">
         <v>4400</v>
       </c>
       <c r="Y48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="Z48" s="3">
         <v>4300</v>
@@ -3645,11 +3752,14 @@
       <c r="AA48" s="3">
         <v>4300</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4004,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3902,11 +4021,11 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3923,8 +4042,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E54" s="3">
         <v>166500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>170300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>172200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>167400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>142800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>142300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>140700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>136500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>137100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>137800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>132200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>131100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>129600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>129000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>119300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>116000</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -4202,11 +4332,11 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -4214,17 +4344,17 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4265,11 +4395,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4380,30 +4516,30 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4416,11 +4552,11 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4647,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,13 +4730,16 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>1900</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -4602,32 +4747,32 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1500</v>
       </c>
       <c r="P62" s="3">
         <v>1500</v>
@@ -4636,40 +4781,43 @@
         <v>1500</v>
       </c>
       <c r="R62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S62" s="3">
         <v>1400</v>
       </c>
       <c r="T62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U62" s="3">
         <v>1600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1500</v>
       </c>
       <c r="V62" s="3">
         <v>1500</v>
       </c>
       <c r="W62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1400</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E66" s="3">
         <v>139700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>141800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>144700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>142200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>137900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>135600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>108700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>109300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>105900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>104700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>103700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>102500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>115200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>105600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>102500</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5508,16 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>17500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -5352,74 +5525,77 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>17400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>16700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>15000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>14200</v>
       </c>
       <c r="S72" s="3">
         <v>14200</v>
       </c>
       <c r="T72" s="3">
+        <v>14200</v>
+      </c>
+      <c r="U72" s="3">
         <v>14100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13500</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E76" s="3">
         <v>26800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>26500</v>
       </c>
       <c r="F76" s="3">
         <v>26500</v>
       </c>
       <c r="G76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H76" s="3">
         <v>30100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>27900</v>
       </c>
       <c r="P76" s="3">
         <v>27900</v>
       </c>
       <c r="Q76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="R76" s="3">
         <v>28000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>27800</v>
       </c>
       <c r="S76" s="3">
         <v>27800</v>
       </c>
       <c r="T76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="U76" s="3">
         <v>27700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13500</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,138 +6006,144 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
@@ -5966,25 +6160,28 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-2100</v>
       </c>
       <c r="Z89" s="3">
         <v>-2100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,43 +6822,44 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6669,22 +6889,25 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-10900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6980,11 +7213,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>15100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-800</v>
       </c>
       <c r="S100" s="3">
         <v>-800</v>
       </c>
       <c r="T100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U100" s="3">
         <v>4100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,150 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1100</v>
@@ -809,10 +817,10 @@
         <v>1200</v>
       </c>
       <c r="L8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="M8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1300</v>
@@ -824,10 +832,10 @@
         <v>1300</v>
       </c>
       <c r="Q8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="S8" s="3">
         <v>1400</v>
@@ -836,34 +844,40 @@
         <v>1400</v>
       </c>
       <c r="U8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1100</v>
       </c>
       <c r="Y8" s="3">
         <v>1200</v>
       </c>
       <c r="Z8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3800</v>
       </c>
       <c r="AC8" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,16 +1471,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1440,7 +1494,7 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1452,16 +1506,16 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1470,19 +1524,19 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1497,30 +1551,36 @@
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="AC17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>900</v>
       </c>
       <c r="I18" s="3">
         <v>1000</v>
@@ -1532,61 +1592,67 @@
         <v>1000</v>
       </c>
       <c r="L18" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M18" s="3">
         <v>1000</v>
       </c>
       <c r="N18" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="O18" s="3">
         <v>1000</v>
       </c>
       <c r="P18" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1000</v>
       </c>
       <c r="W18" s="3">
         <v>1000</v>
       </c>
       <c r="X18" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Y18" s="3">
         <v>1000</v>
       </c>
       <c r="Z18" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB18" s="3">
         <v>800</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>800</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>3000</v>
       </c>
       <c r="AC18" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,19 +1682,21 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-800</v>
       </c>
       <c r="G20" s="3">
         <v>-900</v>
@@ -1637,70 +1705,76 @@
         <v>-800</v>
       </c>
       <c r="I20" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-800</v>
       </c>
       <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-900</v>
       </c>
       <c r="W20" s="3">
         <v>-900</v>
       </c>
       <c r="X20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1728,32 +1802,32 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>100</v>
       </c>
       <c r="U21" s="3">
         <v>200</v>
@@ -1768,22 +1842,28 @@
         <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,59 +1945,65 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
@@ -1934,22 +2020,28 @@
         <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1978,17 +2070,17 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
@@ -1996,10 +2088,10 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -2017,22 +2109,28 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>100</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
         <v>300</v>
       </c>
-      <c r="AC24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,28 +2212,34 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -2144,29 +2248,29 @@
         <v>400</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
@@ -2183,42 +2287,48 @@
         <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
@@ -2227,29 +2337,29 @@
         <v>400</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>400</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
@@ -2266,22 +2376,28 @@
         <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2401,11 +2523,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2416,27 +2538,27 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,19 +2746,25 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>800</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
@@ -2633,90 +2773,96 @@
         <v>800</v>
       </c>
       <c r="I32" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>800</v>
       </c>
       <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>800</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>900</v>
       </c>
       <c r="W32" s="3">
         <v>900</v>
       </c>
       <c r="X32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
@@ -2725,29 +2871,29 @@
         <v>400</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
@@ -2761,25 +2907,31 @@
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,28 +3013,34 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
@@ -2891,29 +3049,29 @@
         <v>400</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>400</v>
+      </c>
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
@@ -2927,113 +3085,125 @@
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3266,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G41" s="3">
         <v>10000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>33300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>42100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>36500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>8000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>12700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>20200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>17100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>19600</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F42" s="3">
         <v>15500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>8100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>10400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>7300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>6700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>6900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>8300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>8500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>9400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>9000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>7400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>3900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>4000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>3800</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,10 +3900,10 @@
         <v>3900</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G48" s="3">
         <v>4000</v>
@@ -3699,10 +3915,10 @@
         <v>4000</v>
       </c>
       <c r="J48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="L48" s="3">
         <v>4100</v>
@@ -3711,55 +3927,61 @@
         <v>4100</v>
       </c>
       <c r="N48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P48" s="3">
         <v>4200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4100</v>
       </c>
       <c r="R48" s="3">
         <v>4100</v>
       </c>
       <c r="S48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U48" s="3">
         <v>4200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4300</v>
       </c>
       <c r="W48" s="3">
         <v>4300</v>
       </c>
       <c r="X48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>4400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4400</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>4300</v>
       </c>
       <c r="AB48" s="3">
         <v>4300</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,31 +4241,37 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -4045,11 +4285,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>174500</v>
+      </c>
+      <c r="F54" s="3">
         <v>173700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>166500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>168300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>170300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>174800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>172200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>167400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>165000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>160400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>156700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>154500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>144100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>142800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>142300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>140700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>136500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>137100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>137800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>133500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>132200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>131100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>129600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>129000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>119300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>116000</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,49 +4578,51 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4398,11 +4660,17 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4519,33 +4793,33 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4555,20 +4829,26 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,91 +5019,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1500</v>
       </c>
       <c r="R62" s="3">
         <v>1500</v>
       </c>
       <c r="S62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1400</v>
       </c>
       <c r="Y62" s="3">
         <v>1500</v>
       </c>
       <c r="Z62" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="AA62" s="3">
         <v>1500</v>
       </c>
       <c r="AB62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1400</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>148200</v>
+      </c>
+      <c r="F66" s="3">
         <v>147100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>139700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>141800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>143800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>144700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>142200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>137900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>135600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>131400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>128500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>126100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>116000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>114900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>114400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>112700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>108700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>109300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>110100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>105900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>104700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>103700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>102500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>115200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>105600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>102500</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>17500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>17400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>16700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>15000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>14200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>14200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>14100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>14000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>13900</v>
-      </c>
-      <c r="X72" s="3">
-        <v>13800</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>13600</v>
       </c>
       <c r="Z72" s="3">
         <v>13800</v>
       </c>
       <c r="AA72" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="AC72" s="3">
         <v>13700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>13500</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F76" s="3">
         <v>26600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>30100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>30000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>29600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>29500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>28300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>27900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>27900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>28000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>27800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>27800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>27700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>27600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>27500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>27300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>27000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>13800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>13700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>13500</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,116 +6387,128 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
@@ -6127,29 +6517,29 @@
         <v>400</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>400</v>
+      </c>
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
@@ -6163,25 +6553,31 @@
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6237,41 +6635,41 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6283,19 +6681,25 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6735,65 +7169,71 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6849,23 +7291,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6892,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6901,13 +7343,19 @@
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7098,65 +7558,71 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-10900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-6300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7216,14 +7684,14 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7544,65 +8036,71 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>15100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>4100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>9300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>4600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7710,61 +8214,67 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EFBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>EFBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,169 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1100</v>
       </c>
       <c r="J8" s="3">
         <v>1100</v>
       </c>
       <c r="K8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1300</v>
       </c>
       <c r="O8" s="3">
         <v>1300</v>
@@ -838,7 +842,7 @@
         <v>1300</v>
       </c>
       <c r="S8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T8" s="3">
         <v>1400</v>
@@ -850,34 +854,37 @@
         <v>1400</v>
       </c>
       <c r="W8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X8" s="3">
         <v>1300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1200</v>
       </c>
       <c r="Y8" s="3">
         <v>1200</v>
       </c>
       <c r="Z8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1200</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1000</v>
       </c>
       <c r="AC8" s="3">
         <v>1000</v>
       </c>
       <c r="AD8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE8" s="3">
         <v>3800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,31 +1499,32 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1512,13 +1539,13 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1530,16 +1557,16 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1557,13 +1584,16 @@
         <v>200</v>
       </c>
       <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,61 +1601,61 @@
         <v>1100</v>
       </c>
       <c r="E18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1300</v>
       </c>
       <c r="G18" s="3">
         <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="I18" s="3">
         <v>1000</v>
       </c>
       <c r="J18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1000</v>
       </c>
       <c r="R18" s="3">
         <v>1000</v>
       </c>
       <c r="S18" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" s="3">
         <v>1100</v>
       </c>
       <c r="U18" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V18" s="3">
         <v>1200</v>
       </c>
       <c r="W18" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="X18" s="3">
         <v>1000</v>
@@ -1634,25 +1664,28 @@
         <v>1000</v>
       </c>
       <c r="Z18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA18" s="3">
         <v>900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>800</v>
       </c>
       <c r="AC18" s="3">
         <v>800</v>
       </c>
       <c r="AD18" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE18" s="3">
         <v>3000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,61 +1727,61 @@
         <v>-1100</v>
       </c>
       <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-700</v>
       </c>
       <c r="S20" s="3">
         <v>-700</v>
       </c>
       <c r="T20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1100</v>
       </c>
       <c r="V20" s="3">
         <v>-1100</v>
       </c>
       <c r="W20" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="X20" s="3">
         <v>-900</v>
@@ -1756,25 +1790,28 @@
         <v>-900</v>
       </c>
       <c r="Z20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1808,62 +1845,65 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
-        <v>300</v>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
       </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>200</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
       <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,61 +1991,64 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
@@ -2026,22 +2069,25 @@
         <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
-        <v>100</v>
-      </c>
       <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2055,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2067,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -2094,7 +2140,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -2115,22 +2161,25 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="3">
         <v>300</v>
       </c>
-      <c r="AE24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,62 +2267,65 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
@@ -2293,76 +2345,79 @@
         <v>100</v>
       </c>
       <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
-        <v>100</v>
-      </c>
       <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
@@ -2382,22 +2437,25 @@
         <v>100</v>
       </c>
       <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
-        <v>100</v>
-      </c>
       <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2590,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2544,11 +2605,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2556,12 +2617,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>200</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,61 +2831,61 @@
         <v>1100</v>
       </c>
       <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>200</v>
       </c>
       <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>700</v>
       </c>
       <c r="S32" s="3">
         <v>700</v>
       </c>
       <c r="T32" s="3">
+        <v>700</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1100</v>
       </c>
       <c r="V32" s="3">
         <v>1100</v>
       </c>
       <c r="W32" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="X32" s="3">
         <v>900</v>
@@ -2824,79 +2894,82 @@
         <v>900</v>
       </c>
       <c r="Z32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
       <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
@@ -2913,25 +2986,28 @@
         <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
-        <v>100</v>
-      </c>
       <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,62 +3095,65 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
       <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
@@ -3091,119 +3170,125 @@
         <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
-        <v>100</v>
-      </c>
       <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>7000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7700</v>
       </c>
       <c r="F41" s="3">
         <v>7700</v>
       </c>
       <c r="G41" s="3">
-        <v>10000</v>
+        <v>7700</v>
       </c>
       <c r="H41" s="3">
         <v>10000</v>
       </c>
       <c r="I41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J41" s="3">
         <v>33300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>17100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>19600</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E42" s="3">
         <v>4900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>6000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>7500</v>
       </c>
       <c r="R42" s="3">
         <v>7500</v>
       </c>
       <c r="S42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T42" s="3">
         <v>7300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3800</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,13 +3996,16 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
         <v>3900</v>
@@ -3906,7 +4014,7 @@
         <v>3900</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H48" s="3">
         <v>4000</v>
@@ -3921,7 +4029,7 @@
         <v>4000</v>
       </c>
       <c r="L48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="M48" s="3">
         <v>4100</v>
@@ -3933,13 +4041,13 @@
         <v>4100</v>
       </c>
       <c r="P48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4100</v>
       </c>
       <c r="S48" s="3">
         <v>4100</v>
@@ -3948,13 +4056,13 @@
         <v>4100</v>
       </c>
       <c r="U48" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="V48" s="3">
         <v>4200</v>
       </c>
       <c r="W48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="X48" s="3">
         <v>4300</v>
@@ -3963,13 +4071,13 @@
         <v>4300</v>
       </c>
       <c r="Z48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="AA48" s="3">
         <v>4400</v>
       </c>
       <c r="AB48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="AC48" s="3">
         <v>4300</v>
@@ -3977,11 +4085,14 @@
       <c r="AD48" s="3">
         <v>4300</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4258,11 +4378,11 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -4270,11 +4390,11 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -4291,8 +4411,8 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E54" s="3">
         <v>177900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>173700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>172200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>142800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>142300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>140700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>136500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>137100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>137800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>133500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>132200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>131100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>129600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>129000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>119300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>116000</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4591,11 +4722,11 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -4603,11 +4734,11 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
@@ -4615,17 +4746,17 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4666,11 +4797,14 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4799,30 +4936,30 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4835,11 +4972,11 @@
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>5</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5036,44 +5182,44 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1500</v>
       </c>
       <c r="S62" s="3">
         <v>1500</v>
@@ -5082,40 +5228,43 @@
         <v>1500</v>
       </c>
       <c r="U62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V62" s="3">
         <v>1400</v>
       </c>
       <c r="W62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X62" s="3">
         <v>1600</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1500</v>
       </c>
       <c r="Y62" s="3">
         <v>1500</v>
       </c>
       <c r="Z62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1400</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E66" s="3">
         <v>151600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>147100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>139700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>141800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>143800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>144700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>142200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>137900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>135600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>131400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>128500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>126100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>114400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>108700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>109300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>110100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>105900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>104700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>103700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>102500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>115200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>105600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>102500</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5870,86 +6044,89 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>17500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>17400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>16700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>15000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>14200</v>
       </c>
       <c r="V72" s="3">
         <v>14200</v>
       </c>
       <c r="W72" s="3">
+        <v>14200</v>
+      </c>
+      <c r="X72" s="3">
         <v>14100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13500</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,88 +6410,91 @@
         <v>26300</v>
       </c>
       <c r="E76" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F76" s="3">
         <v>26200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>26500</v>
       </c>
       <c r="I76" s="3">
         <v>26500</v>
       </c>
       <c r="J76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K76" s="3">
         <v>30100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>27900</v>
       </c>
       <c r="S76" s="3">
         <v>27900</v>
       </c>
       <c r="T76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="U76" s="3">
         <v>28000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>27800</v>
       </c>
       <c r="V76" s="3">
         <v>27800</v>
       </c>
       <c r="W76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="X76" s="3">
         <v>27700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13500</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,156 +6582,162 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
       <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
@@ -6559,25 +6754,28 @@
         <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
-        <v>100</v>
-      </c>
       <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6641,65 +6840,68 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>100</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
-      <c r="AE83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7175,65 +7392,68 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-2100</v>
       </c>
       <c r="AC89" s="3">
         <v>-2100</v>
       </c>
       <c r="AD89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7297,20 +7518,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7340,22 +7561,25 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="3">
         <v>-100</v>
       </c>
       <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7564,65 +7794,68 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-10900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7690,11 +7924,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8042,65 +8288,68 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>15100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-800</v>
       </c>
       <c r="V100" s="3">
         <v>-800</v>
       </c>
       <c r="W100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X100" s="3">
         <v>4100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>9300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>4600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8220,61 +8472,64 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>500</v>
       </c>
     </row>
